--- a/data/extractions/251020 Fiche d'extraction d'échantillons.xlsx
+++ b/data/extractions/251020 Fiche d'extraction d'échantillons.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itgitm.sharepoint.com/sites/THA-DigitalManagementSystem-CRTDipumbaUpload/Gedeelde documenten/CRT Dipumba Upload/02 - Extractions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itgitm-my.sharepoint.com/personal/nvanreet_itg_be/Documents/Documenten/GitHub/biobank-dashboard/data/extractions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E3E4454-CC47-4DB2-99D1-3311FB937631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{7E3E4454-CC47-4DB2-99D1-3311FB937631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{713A8774-476C-47A6-AA5B-5AC749769907}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1CE68EB6-DB45-45E9-95B2-F2EDACD56A3B}"/>
   </bookViews>
@@ -387,9 +387,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -397,6 +394,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -728,7 +728,7 @@
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="8.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.33203125" customWidth="1"/>
     <col min="10" max="10" width="6.33203125" style="1" customWidth="1"/>
@@ -737,20 +737,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:12" ht="71.400000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -792,496 +792,496 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>296</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>2501293</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>1.7</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>26</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>3</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>45950</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>297</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>2501911</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>3.3</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>26</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>4</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>45950</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>298</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>2501962</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>1.8</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>26</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>5</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>45950</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>299</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>2501343</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>1.9</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>26</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>6</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>45950</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>300</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>2400826</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>1.9</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>26</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>7</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>45950</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>301</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>2402299</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>1.9</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>26</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>8</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>45950</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="I9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>302</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>2400769</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>1.8</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>26</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>9</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>45950</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="I10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="9">
+      <c r="K10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>303</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>2500058</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>2</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>26</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>10</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>45950</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="I11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="9">
+      <c r="K11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>304</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>2500047</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>1.9</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>26</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>11</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>45950</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="9" t="s">
+      <c r="I12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="9">
+      <c r="K12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>305</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>2500045</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>1.9</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>26</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>12</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>45950</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="9" t="s">
+      <c r="I13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="9">
+      <c r="K13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>306</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>2500101</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>2.5</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>26</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>13</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>45950</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="9" t="s">
+      <c r="I14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="9">
+      <c r="K14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>307</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>2500069</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>26</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>14</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <v>45950</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="9" t="s">
+      <c r="I15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="9">
+      <c r="K15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>308</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>2500038</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>2.5</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>26</v>
       </c>
-      <c r="F16" s="9">
-        <v>15</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="F16" s="8">
+        <v>15</v>
+      </c>
+      <c r="G16" s="10">
         <v>45950</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="9" t="s">
+      <c r="I16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="9">
+      <c r="K16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="8">
         <v>7</v>
       </c>
     </row>
@@ -1296,26 +1296,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-11-13T09:28:31+00:00</Uploaded>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F56A3FBA1F9FF429D4C886089ACEF10" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="93e6b79bffcb710984822118ae45b29f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="974e1998-2087-4290-81d3-cf83f1cc5cbf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c971e98cb6cdb6e05177eaad282d8065" ns2:_="">
     <xsd:import namespace="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
@@ -1493,10 +1473,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-11-13T09:28:31+00:00</Uploaded>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC6D1BF0-17BE-413F-8EC7-D6FE7C1BB27C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6E3883B-A485-49D5-90F5-6FCBBD79DCC7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1512,19 +1522,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6E3883B-A485-49D5-90F5-6FCBBD79DCC7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC6D1BF0-17BE-413F-8EC7-D6FE7C1BB27C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>